--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>3.054599347420139</v>
+        <v>5.515135932605308</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-3.872359107260159</v>
+        <v>-2.764179109379705</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>0.6832201941375571</v>
+        <v>-0.2596132895792413</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>4.530477057343663</v>
+        <v>3.38265053313096</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>6.198184853554634</v>
+        <v>1.421687849828523</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>6.833902841285977</v>
+        <v>5.813045170083808</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>6.977693666529272</v>
+        <v>2.371160938652705</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.166536506645224</v>
+        <v>4.597183386292891</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>4.580469755461802</v>
+        <v>6.213583554874536</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.669880057548091</v>
+        <v>2.113053977048707</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>5.800035788110924</v>
+        <v>3.80132608443593</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.50293301232252</v>
+        <v>5.262295419893648</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>6.575740619085968</v>
+        <v>3.911207409579687</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.829481320500406</v>
+        <v>4.78031692483154</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>5.637047132432382</v>
+        <v>4.481753591536197</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>5.100281927437122</v>
+        <v>5.386945580119185</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>4.889825623401545</v>
+        <v>5.291601650505706</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>5.161358932333737</v>
+        <v>4.884223728030879</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>5.261684900217256</v>
+        <v>4.848884192354119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>5.903240711112856</v>
+        <v>6.072005530313129</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>4.751894620017949</v>
+        <v>5.47980442665561</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.937486382457855</v>
+        <v>4.927928448556984</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.718398465425499</v>
+        <v>5.802765867180804</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-4.007669511185885</v>
+        <v>2.502519143054571</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.894792862113562</v>
+        <v>3.379658261193086</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.488248808663228</v>
+        <v>0.3986977119751156</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>8.604279583650509</v>
+        <v>1.500453746466346</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.395586567457175</v>
+        <v>1.97557360987699</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.99549438235165</v>
+        <v>0.05919149746531627</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.158581765635204</v>
+        <v>-2.311523918755531</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.750193614401542</v>
+        <v>-0.1671238976421296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.4507701807948239</v>
+        <v>-0.8195740704359578</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>3.710266040086396</v>
+        <v>-0.4351858173977874</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5756371110930525</v>
+        <v>0.4857399523052974</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.5339625944420057</v>
+        <v>-0.3387208997876479</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>6.109216616889168</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>5.515135932605308</v>
+        <v>8.045645122021906</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-2.764179109379705</v>
+        <v>-5.232639093663815</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.2596132895792413</v>
+        <v>-0.9943400519801915</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>3.38265053313096</v>
+        <v>2.12454018480297</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.421687849828523</v>
+        <v>1.203634802640963</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>5.813045170083808</v>
+        <v>8.081020954067775</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.371160938652705</v>
+        <v>2.257871268432821</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.597183386292891</v>
+        <v>4.489210662380949</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>6.213583554874536</v>
+        <v>7.472658273721078</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.113053977048707</v>
+        <v>-0.8752093743685352</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>3.80132608443593</v>
+        <v>1.998870338019265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.262295419893648</v>
+        <v>4.891728508251214</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>3.911207409579687</v>
+        <v>2.926340920335191</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.78031692483154</v>
+        <v>4.818339085077583</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>4.481753591536197</v>
+        <v>4.241902819910548</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>5.386945580119185</v>
+        <v>4.067959312311897</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>5.291601650505706</v>
+        <v>4.36243732366437</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.884223728030879</v>
+        <v>4.613634856640747</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>4.848884192354119</v>
+        <v>4.246555741688218</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>6.072005530313129</v>
+        <v>3.898744563937395</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>5.47980442665561</v>
+        <v>3.529300656691237</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>4.927928448556984</v>
+        <v>3.841510956591465</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>5.802765867180804</v>
+        <v>4.83848589746565</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.502519143054571</v>
+        <v>-0.8225206269755425</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>3.379658261193086</v>
+        <v>1.159653508089242</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.3986977119751156</v>
+        <v>4.409066926520455</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>1.500453746466346</v>
+        <v>3.034999751677669</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.97557360987699</v>
+        <v>8.064077385547574</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.05919149746531627</v>
+        <v>3.690055931494096</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.311523918755531</v>
+        <v>0.3551698673347259</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.1671238976421296</v>
+        <v>4.038118345571751</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.8195740704359578</v>
+        <v>-2.267078452724969</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.4351858173977874</v>
+        <v>0.5378929214800987</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4857399523052974</v>
+        <v>1.326993065386817</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.3387208997876479</v>
+        <v>-0.2087957186147071</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>4.409066926520455</v>
+        <v>2.848657652839015</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>3.034999751677669</v>
+        <v>0.8699781697852682</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>8.064077385547574</v>
+        <v>7.397941265640773</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.690055931494096</v>
+        <v>2.551560717335288</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.3551698673347259</v>
+        <v>1.134134753233695</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>4.038118345571751</v>
+        <v>5.807910951802375</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-2.267078452724969</v>
+        <v>-2.44753364817466</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.5378929214800987</v>
+        <v>1.338948536686968</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.326993065386817</v>
+        <v>1.038949519463639</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.2087957186147071</v>
+        <v>-1.22086907471215</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>6.109216616889168</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>8.045645122021906</v>
+        <v>8.045645122021927</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +437,7 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-5.232639093663815</v>
+        <v>-5.232639093663827</v>
       </c>
       <c r="D3">
         <v>2010</v>
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>2.12454018480297</v>
+        <v>2.124540184802992</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>8.081020954067775</v>
+        <v>8.081020954067753</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.489210662380949</v>
+        <v>4.489210662380971</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.8752093743685352</v>
+        <v>-0.8752093743685241</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -542,7 +539,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.818339085077583</v>
+        <v>4.818339085077561</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>4.613634856640747</v>
+        <v>4.613634856640769</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -616,7 +613,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>4.83848589746565</v>
+        <v>4.838485897465628</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -650,7 +647,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.8699781697852682</v>
+        <v>0.869978169785246</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +664,7 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.551560717335288</v>
+        <v>2.551560717335266</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -695,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-2.44753364817466</v>
+        <v>-2.447533648174649</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -712,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.038949519463639</v>
+        <v>1.038949519463617</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-1.22086907471215</v>
+        <v>-1.220869074712128</v>
       </c>
     </row>
   </sheetData>
